--- a/LiteratureAnalysis/data/Data_flow/dataset_others.xlsx
+++ b/LiteratureAnalysis/data/Data_flow/dataset_others.xlsx
@@ -9,20 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5394"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$N$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
   <si>
     <t>DOI</t>
   </si>
@@ -635,12 +639,30 @@
   <si>
     <t>FLOW</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>F+P</t>
+  </si>
+  <si>
+    <t>I+P</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>计数项:FLOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -726,6 +748,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -743,8 +770,228 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="admin" refreshedDate="43735.611320138887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="41">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="N1:N1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="FLOW" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="F"/>
+        <s v="P+I"/>
+        <s v="P+F"/>
+        <s v="I"/>
+        <s v="P + I"/>
+        <s v="F+P"/>
+        <s v="I+P"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:FLOW" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1030,18 +1277,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="6">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1431,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1475,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1261,7 +1607,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1305,7 +1651,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1695,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1393,7 +1739,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1437,7 +1783,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1481,7 +1827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1871,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1569,7 +1915,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1660,7 +2006,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1704,7 +2050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1748,7 +2094,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1792,7 +2138,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +2182,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1880,7 +2226,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +2270,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1968,7 +2314,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +2358,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2056,7 +2402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2103,7 +2449,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +2493,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2191,7 +2537,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2235,7 +2581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2625,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2323,7 +2669,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2367,7 +2713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2411,7 +2757,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2455,7 +2801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
@@ -2499,7 +2845,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -2543,7 +2889,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
@@ -2587,7 +2933,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
@@ -2631,7 +2977,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -2675,7 +3021,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2719,7 +3065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
@@ -2763,7 +3109,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -2807,7 +3153,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>52</v>
       </c>
